--- a/Heuristicas/ResultadoEnsemble/PSO_cenario_Ensemble_ts1.xlsx
+++ b/Heuristicas/ResultadoEnsemble/PSO_cenario_Ensemble_ts1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
   <si>
     <t>erro validation</t>
   </si>
@@ -88,64 +88,61 @@
     <t>Mediana</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Média Ponderada</t>
   </si>
   <si>
     <t>Média aparada</t>
   </si>
   <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>holt</t>
+  </si>
+  <si>
+    <t>NNAR</t>
+  </si>
+  <si>
     <t>ses</t>
   </si>
   <si>
-    <t>holt</t>
-  </si>
-  <si>
-    <t>naive</t>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>MLP A2</t>
+  </si>
+  <si>
+    <t>SVR A1</t>
+  </si>
+  <si>
+    <t>MLP A1</t>
+  </si>
+  <si>
+    <t>MLP A3</t>
+  </si>
+  <si>
+    <t>Arima</t>
   </si>
   <si>
     <t>RNN A3</t>
   </si>
   <si>
-    <t>SVR A1</t>
-  </si>
-  <si>
-    <t>Ar</t>
-  </si>
-  <si>
-    <t>Arima</t>
+    <t>ELM</t>
+  </si>
+  <si>
+    <t>RNN A1</t>
   </si>
   <si>
     <t>SVR A5</t>
   </si>
   <si>
-    <t>ELM</t>
-  </si>
-  <si>
-    <t>NNAR</t>
-  </si>
-  <si>
-    <t>RNN A1</t>
-  </si>
-  <si>
-    <t>MLP A1</t>
-  </si>
-  <si>
-    <t>MLP A2</t>
-  </si>
-  <si>
     <t>SVR A2</t>
   </si>
   <si>
-    <t>SVR A6</t>
-  </si>
-  <si>
-    <t>MLP A3</t>
-  </si>
-  <si>
-    <t>RNN A2</t>
+    <t>SVR A4</t>
+  </si>
+  <si>
+    <t>NNAR RNN</t>
   </si>
   <si>
     <t>SVR A3</t>
@@ -588,25 +585,22 @@
         <v>0.025</v>
       </c>
       <c r="B2">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -620,13 +614,19 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -640,77 +640,77 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
       </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
         <v>0.025</v>
       </c>
       <c r="B5">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="B6">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -718,25 +718,25 @@
         <v>0.025</v>
       </c>
       <c r="B7">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -750,45 +750,54 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="B9">
         <v>0.019</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -799,45 +808,54 @@
         <v>0.019</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="B11">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -848,54 +866,51 @@
         <v>0.018</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="B13">
         <v>0.018</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -903,19 +918,28 @@
         <v>0.025</v>
       </c>
       <c r="B14">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s">
-        <v>35</v>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -923,16 +947,16 @@
         <v>0.026</v>
       </c>
       <c r="B15">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>33</v>
@@ -944,22 +968,7 @@
         <v>36</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -973,74 +982,71 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>0.026</v>
+      </c>
+      <c r="B17">
+        <v>0.018</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>0.025</v>
+      </c>
+      <c r="B18">
+        <v>0.018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>0.025</v>
-      </c>
-      <c r="B17">
-        <v>0.019</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>0.025</v>
-      </c>
-      <c r="B18">
-        <v>0.019</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>0.025</v>
       </c>
@@ -1051,54 +1057,45 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>0.025</v>
       </c>
       <c r="B20">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>0.025</v>
       </c>
@@ -1109,16 +1106,22 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
